--- a/xlsx_template/aps_import_templete.xlsx
+++ b/xlsx_template/aps_import_templete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="14040" tabRatio="880" activeTab="2"/>
+    <workbookView windowWidth="27900" windowHeight="14040" tabRatio="880"/>
   </bookViews>
   <sheets>
     <sheet name="SummaryInfo" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Export Time</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>project_list_size</t>
+  </si>
+  <si>
+    <t>lock_period_after_schedule_time(h)</t>
   </si>
   <si>
     <t>project_serial_number</t>
@@ -159,11 +162,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -191,42 +194,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,11 +215,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,9 +251,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,14 +313,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,61 +335,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,25 +359,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,49 +473,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,36 +533,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -483,60 +540,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,15 +560,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,21 +597,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -650,6 +629,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -663,151 +666,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1191,8 +1194,8 @@
   <sheetPr/>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -1247,8 +1250,11 @@
       </c>
       <c r="B8" s="17"/>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="18"/>
+    <row r="9" spans="1:2">
+      <c r="A9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17"/>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="18"/>
@@ -1323,22 +1329,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1368,7 +1374,7 @@
   <sheetPr/>
   <dimension ref="A1:AE53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1410,97 +1416,97 @@
   <sheetData>
     <row r="1" ht="56" spans="1:31">
       <c r="A1" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA1" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD1" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="1"/>
@@ -1789,13 +1795,13 @@
   <sheetData>
     <row r="1" ht="17" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="4"/>
     </row>

--- a/xlsx_template/aps_import_templete.xlsx
+++ b/xlsx_template/aps_import_templete.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="14040" tabRatio="880"/>
+    <workbookView windowWidth="27900" windowHeight="14040" tabRatio="880" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="SummaryInfo" sheetId="1" r:id="rId1"/>
-    <sheet name="ProjectList" sheetId="2" r:id="rId2"/>
-    <sheet name="JobList" sheetId="3" r:id="rId3"/>
-    <sheet name="MachinesPlanStopList" sheetId="4" r:id="rId4"/>
+    <sheet name="概要信息" sheetId="1" r:id="rId1"/>
+    <sheet name="胶料代号列表" sheetId="2" r:id="rId2"/>
+    <sheet name="胶料编码列表" sheetId="3" r:id="rId3"/>
+    <sheet name="机台计划停机列表" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -19,142 +19,142 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
-    <t>Export Time</t>
-  </si>
-  <si>
-    <t>aps_no</t>
-  </si>
-  <si>
-    <t>machine_size</t>
-  </si>
-  <si>
-    <t>aps_start_time</t>
-  </si>
-  <si>
-    <t>aps_schedule_dulation(h)</t>
-  </si>
-  <si>
-    <t>machine_stopplan_list_size</t>
-  </si>
-  <si>
-    <t>project_list_size</t>
-  </si>
-  <si>
-    <t>lock_period_after_schedule_time(h)</t>
-  </si>
-  <si>
-    <t>project_serial_number</t>
-  </si>
-  <si>
-    <t>project_name</t>
-  </si>
-  <si>
-    <t>release_date</t>
-  </si>
-  <si>
-    <t>critical_path_duration</t>
-  </si>
-  <si>
-    <t>delivery_time</t>
-  </si>
-  <si>
-    <t>job_list_size</t>
-  </si>
-  <si>
-    <t>job_serial_number</t>
-  </si>
-  <si>
-    <t>job_name</t>
-  </si>
-  <si>
-    <t>job_type</t>
-  </si>
-  <si>
-    <t>weight_quantity</t>
-  </si>
-  <si>
-    <t>execution_mode_list_size</t>
-  </si>
-  <si>
-    <t>execution_mode_duration-1</t>
-  </si>
-  <si>
-    <t>machine_id-1</t>
-  </si>
-  <si>
-    <t>machine_alloc_starttime-1</t>
-  </si>
-  <si>
-    <t>plan_trains-1</t>
-  </si>
-  <si>
-    <t>execution_mode_duration-2</t>
-  </si>
-  <si>
-    <t>machine_id-2</t>
-  </si>
-  <si>
-    <t>machine_alloc_starttime-2</t>
-  </si>
-  <si>
-    <t>plan_trains-2</t>
-  </si>
-  <si>
-    <t>execution_mode_duration-3</t>
-  </si>
-  <si>
-    <t>machine_id-3</t>
-  </si>
-  <si>
-    <t>machine_alloc_starttime-3</t>
-  </si>
-  <si>
-    <t>plan_trains-3</t>
-  </si>
-  <si>
-    <t>execution_mode_duration-4</t>
-  </si>
-  <si>
-    <t>machine_id-4</t>
-  </si>
-  <si>
-    <t>machine_alloc_starttime-4</t>
-  </si>
-  <si>
-    <t>plan_trains-4</t>
-  </si>
-  <si>
-    <t>execution_mode_duration-5</t>
-  </si>
-  <si>
-    <t>machine_id-5</t>
-  </si>
-  <si>
-    <t>machine_alloc_starttime-5</t>
-  </si>
-  <si>
-    <t>plan_trains-5</t>
-  </si>
-  <si>
-    <t>execution_mode_duration-6</t>
-  </si>
-  <si>
-    <t>machine_id-6</t>
-  </si>
-  <si>
-    <t>machine_alloc_starttime-6</t>
-  </si>
-  <si>
-    <t>plan_trains-6</t>
-  </si>
-  <si>
-    <t>machine_no</t>
-  </si>
-  <si>
-    <t>stopPlanStartTime</t>
-  </si>
-  <si>
-    <t>stopPlanDuration(Minute)</t>
+    <t>MES导出时间</t>
+  </si>
+  <si>
+    <t>APS编号</t>
+  </si>
+  <si>
+    <t>机台个数</t>
+  </si>
+  <si>
+    <t>APS开始时间</t>
+  </si>
+  <si>
+    <t>APS排程持续时间（小时）</t>
+  </si>
+  <si>
+    <t>机台计划停机数据个数</t>
+  </si>
+  <si>
+    <t>胶料代号数据个数</t>
+  </si>
+  <si>
+    <t>锁定期间（小时）</t>
+  </si>
+  <si>
+    <t>胶料代号序号</t>
+  </si>
+  <si>
+    <t>胶料代号名称</t>
+  </si>
+  <si>
+    <t>最早可开始时间</t>
+  </si>
+  <si>
+    <t>关键路径持续时间</t>
+  </si>
+  <si>
+    <t>交货时间</t>
+  </si>
+  <si>
+    <t>胶料编码数据个数</t>
+  </si>
+  <si>
+    <t>胶料编码序号</t>
+  </si>
+  <si>
+    <t>胶料编码名称</t>
+  </si>
+  <si>
+    <t>计划类型</t>
+  </si>
+  <si>
+    <t>重量（公斤）</t>
+  </si>
+  <si>
+    <t>执行模式数据个数</t>
+  </si>
+  <si>
+    <t>执行模式持续时间-1</t>
+  </si>
+  <si>
+    <t>执行模式机台号-1</t>
+  </si>
+  <si>
+    <t>执行模式机台开始或延迟时间-1</t>
+  </si>
+  <si>
+    <t>执行模式计划车数-1</t>
+  </si>
+  <si>
+    <t>执行模式持续时间-2</t>
+  </si>
+  <si>
+    <t>执行模式机台号-2</t>
+  </si>
+  <si>
+    <t>执行模式机台开始或延迟时间-2</t>
+  </si>
+  <si>
+    <t>执行模式计划车数-2</t>
+  </si>
+  <si>
+    <t>执行模式持续时间-3</t>
+  </si>
+  <si>
+    <t>执行模式机台号-3</t>
+  </si>
+  <si>
+    <t>执行模式机台开始或延迟时间-3</t>
+  </si>
+  <si>
+    <t>执行模式计划车数-3</t>
+  </si>
+  <si>
+    <t>执行模式持续时间-4</t>
+  </si>
+  <si>
+    <t>执行模式机台号-4</t>
+  </si>
+  <si>
+    <t>执行模式机台开始或延迟时间-4</t>
+  </si>
+  <si>
+    <t>执行模式计划车数-4</t>
+  </si>
+  <si>
+    <t>执行模式持续时间-5</t>
+  </si>
+  <si>
+    <t>执行模式机台号-5</t>
+  </si>
+  <si>
+    <t>执行模式机台开始或延迟时间-5</t>
+  </si>
+  <si>
+    <t>执行模式计划车数-5</t>
+  </si>
+  <si>
+    <t>执行模式持续时间-6</t>
+  </si>
+  <si>
+    <t>执行模式机台号-6</t>
+  </si>
+  <si>
+    <t>执行模式机台开始或延迟时间-6</t>
+  </si>
+  <si>
+    <t>执行模式计划车数-6</t>
+  </si>
+  <si>
+    <t>机台号</t>
+  </si>
+  <si>
+    <t>计划停机开始时间</t>
+  </si>
+  <si>
+    <t>计划停机持续时间（分钟）</t>
   </si>
 </sst>
 </file>
@@ -168,7 +168,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -177,6 +177,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -187,9 +188,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体-简"/>
       <charset val="134"/>
     </font>
     <font>
@@ -207,52 +213,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,10 +228,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -289,8 +296,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,45 +355,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -365,181 +371,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,11 +559,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -575,24 +585,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,25 +628,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,13 +657,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,170 +676,170 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -839,18 +849,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -866,10 +870,19 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1194,8 +1207,8 @@
   <sheetPr/>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -1204,99 +1217,99 @@
     <col min="2" max="2" width="31.4038461538462" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
+    <row r="1" ht="17" spans="1:2">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" ht="17" spans="1:2">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="17" t="s">
+      <c r="B3" s="16"/>
+    </row>
+    <row r="4" ht="17" spans="1:2">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="17" t="s">
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" ht="17" spans="1:2">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="17" t="s">
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" ht="17" spans="1:2">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="17"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="17" t="s">
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" ht="17" spans="1:2">
+      <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="17"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="17" t="s">
+      <c r="B7" s="16"/>
+    </row>
+    <row r="8" ht="17" spans="1:2">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="17"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="17" t="s">
+      <c r="B8" s="16"/>
+    </row>
+    <row r="9" ht="17" spans="1:2">
+      <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="16"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2"/>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2"/>
+      <c r="A13" s="4"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2"/>
+      <c r="A15" s="4"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2"/>
+      <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
+      <c r="A17" s="4"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
+      <c r="A18" s="4"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
+      <c r="A19" s="4"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
+      <c r="A20" s="4"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
+      <c r="A21" s="4"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
+      <c r="A22" s="4"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="2"/>
+      <c r="A23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1309,59 +1322,59 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="27" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.4038461538462" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.0576923076923" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.2115384615385" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1923076923077" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.9615384615385" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+    <row r="1" ht="34" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="16"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="15"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1372,140 +1385,121 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE53"/>
+  <dimension ref="A1:AE49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE8" sqref="AE8"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="28.0480769230769" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="22.5961538461538" customWidth="1"/>
-    <col min="4" max="4" width="20.1923076923077" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-    <col min="8" max="8" width="22.75" customWidth="1"/>
-    <col min="9" max="9" width="14.8846153846154" customWidth="1"/>
-    <col min="10" max="10" width="21.25" customWidth="1"/>
-    <col min="11" max="12" width="22.75" customWidth="1"/>
-    <col min="13" max="13" width="11.125" customWidth="1"/>
-    <col min="14" max="14" width="21.25" customWidth="1"/>
-    <col min="15" max="15" width="22.75" customWidth="1"/>
-    <col min="16" max="16" width="28.0384615384615" customWidth="1"/>
-    <col min="17" max="17" width="14.7403846153846" customWidth="1"/>
-    <col min="18" max="18" width="26.1153846153846" customWidth="1"/>
-    <col min="19" max="19" width="13.7692307692308" customWidth="1"/>
-    <col min="20" max="20" width="29.1634615384615" customWidth="1"/>
-    <col min="21" max="21" width="16.0192307692308" customWidth="1"/>
-    <col min="22" max="22" width="28.5192307692308" customWidth="1"/>
-    <col min="23" max="23" width="15.7019230769231" customWidth="1"/>
-    <col min="24" max="24" width="28.5288461538462" customWidth="1"/>
-    <col min="25" max="25" width="16.0288461538462" customWidth="1"/>
-    <col min="26" max="26" width="28.0384615384615" customWidth="1"/>
-    <col min="27" max="27" width="15.2211538461538" customWidth="1"/>
-    <col min="28" max="28" width="24.3557692307692" customWidth="1"/>
-    <col min="29" max="29" width="18.2692307692308" customWidth="1"/>
+    <col min="1" max="1" width="17.1442307692308" customWidth="1"/>
+    <col min="2" max="2" width="16.9807692307692" customWidth="1"/>
+    <col min="3" max="3" width="13.7884615384615" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="11.6923076923077" customWidth="1"/>
+    <col min="6" max="6" width="13.7788461538462" customWidth="1"/>
+    <col min="7" max="7" width="17.9423076923077" customWidth="1"/>
+    <col min="8" max="8" width="12.3269230769231" customWidth="1"/>
+    <col min="9" max="31" width="10.5769230769231" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="56" spans="1:31">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="8" customFormat="1" ht="68" spans="1:31">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1514,257 +1508,1156 @@
     <row r="4" customFormat="1"/>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
-    <row r="7" customFormat="1"/>
-    <row r="8" customFormat="1"/>
-    <row r="9" customFormat="1"/>
-    <row r="10" customFormat="1"/>
-    <row r="11" customFormat="1" spans="3:10">
+    <row r="7" customFormat="1" spans="3:31">
+      <c r="C7" s="9"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+    </row>
+    <row r="8" customFormat="1" spans="3:31">
+      <c r="C8" s="9"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+    </row>
+    <row r="9" customFormat="1" spans="3:31">
+      <c r="C9" s="9"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+    </row>
+    <row r="10" customFormat="1" spans="3:31">
+      <c r="C10" s="9"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+    </row>
+    <row r="11" customFormat="1" spans="3:31">
       <c r="C11" s="9"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-    </row>
-    <row r="12" customFormat="1" spans="3:10">
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+    </row>
+    <row r="12" customFormat="1" spans="3:31">
       <c r="C12" s="9"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-    </row>
-    <row r="13" customFormat="1" spans="3:10">
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+    </row>
+    <row r="13" customFormat="1" spans="3:31">
       <c r="C13" s="9"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-    </row>
-    <row r="14" customFormat="1" spans="3:10">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+    </row>
+    <row r="14" customFormat="1" spans="3:31">
       <c r="C14" s="9"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-    </row>
-    <row r="15" customFormat="1" spans="3:10">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+    </row>
+    <row r="15" customFormat="1" spans="3:31">
       <c r="C15" s="9"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-    </row>
-    <row r="16" customFormat="1" spans="3:10">
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+    </row>
+    <row r="16" customFormat="1" spans="3:31">
       <c r="C16" s="9"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-    </row>
-    <row r="17" customFormat="1" spans="3:10">
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+    </row>
+    <row r="17" customFormat="1" spans="3:31">
       <c r="C17" s="9"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-    </row>
-    <row r="18" customFormat="1" spans="3:10">
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+    </row>
+    <row r="18" customFormat="1" spans="3:31">
       <c r="C18" s="9"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-    </row>
-    <row r="19" customFormat="1" spans="3:10">
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+    </row>
+    <row r="19" customFormat="1" spans="3:31">
       <c r="C19" s="9"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-    </row>
-    <row r="20" customFormat="1" spans="3:10">
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+    </row>
+    <row r="20" customFormat="1" spans="3:31">
       <c r="C20" s="9"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-    </row>
-    <row r="21" customFormat="1" spans="3:10">
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+    </row>
+    <row r="21" customFormat="1" spans="3:31">
       <c r="C21" s="9"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-    </row>
-    <row r="22" customFormat="1" spans="3:10">
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+    </row>
+    <row r="22" customFormat="1" spans="3:31">
       <c r="C22" s="9"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-    </row>
-    <row r="23" customFormat="1" spans="3:10">
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+    </row>
+    <row r="23" customFormat="1" spans="3:31">
       <c r="C23" s="9"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-    </row>
-    <row r="24" customFormat="1" spans="3:10">
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+    </row>
+    <row r="24" customFormat="1" spans="3:31">
       <c r="C24" s="9"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-    </row>
-    <row r="25" customFormat="1" spans="3:10">
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+    </row>
+    <row r="25" customFormat="1" spans="3:31">
       <c r="C25" s="9"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-    </row>
-    <row r="26" customFormat="1" spans="3:10">
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+    </row>
+    <row r="26" customFormat="1" spans="3:31">
       <c r="C26" s="9"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-    </row>
-    <row r="27" customFormat="1" spans="3:10">
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+    </row>
+    <row r="27" customFormat="1" spans="3:31">
       <c r="C27" s="9"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-    </row>
-    <row r="28" customFormat="1" spans="3:10">
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+    </row>
+    <row r="28" customFormat="1" spans="3:31">
       <c r="C28" s="9"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-    </row>
-    <row r="29" customFormat="1" spans="3:10">
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+    </row>
+    <row r="29" customFormat="1" spans="3:31">
       <c r="C29" s="9"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-    </row>
-    <row r="30" customFormat="1" spans="3:10">
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+    </row>
+    <row r="30" customFormat="1" spans="3:31">
       <c r="C30" s="9"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-    </row>
-    <row r="31" customFormat="1" spans="3:10">
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+    </row>
+    <row r="31" customFormat="1" spans="3:31">
       <c r="C31" s="9"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-    </row>
-    <row r="32" customFormat="1" spans="3:10">
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+    </row>
+    <row r="32" customFormat="1" spans="3:31">
       <c r="C32" s="9"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-    </row>
-    <row r="33" customFormat="1" spans="3:10">
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+    </row>
+    <row r="33" customFormat="1" spans="3:31">
       <c r="C33" s="9"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-    </row>
-    <row r="34" customFormat="1" spans="3:10">
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+    </row>
+    <row r="34" customFormat="1" spans="3:31">
       <c r="C34" s="9"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-    </row>
-    <row r="35" customFormat="1" spans="3:10">
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+    </row>
+    <row r="35" customFormat="1" spans="3:31">
       <c r="C35" s="9"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-    </row>
-    <row r="36" customFormat="1" spans="3:10">
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+    </row>
+    <row r="36" customFormat="1" spans="3:31">
       <c r="C36" s="9"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-    </row>
-    <row r="37" customFormat="1" spans="3:10">
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+    </row>
+    <row r="37" customFormat="1" spans="3:31">
       <c r="C37" s="9"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-    </row>
-    <row r="38" customFormat="1" spans="3:10">
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+    </row>
+    <row r="38" customFormat="1" spans="3:31">
       <c r="C38" s="9"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-    </row>
-    <row r="39" customFormat="1" spans="3:10">
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+    </row>
+    <row r="39" customFormat="1" spans="3:31">
       <c r="C39" s="9"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-    </row>
-    <row r="40" customFormat="1" spans="3:10">
-      <c r="C40" s="9"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+    </row>
+    <row r="40" customFormat="1" spans="8:31">
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
-    </row>
-    <row r="41" customFormat="1" spans="3:10">
-      <c r="C41" s="9"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+    </row>
+    <row r="41" customFormat="1" spans="8:31">
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
-    </row>
-    <row r="42" customFormat="1" spans="3:10">
-      <c r="C42" s="9"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+    </row>
+    <row r="42" customFormat="1" spans="8:31">
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
-    </row>
-    <row r="43" customFormat="1" spans="3:10">
-      <c r="C43" s="9"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+    </row>
+    <row r="43" customFormat="1" spans="8:31">
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
-    </row>
-    <row r="44" customFormat="1" spans="8:10">
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+    </row>
+    <row r="44" customFormat="1" spans="8:31">
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
-    </row>
-    <row r="45" customFormat="1" spans="8:10">
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
+    </row>
+    <row r="45" customFormat="1" spans="8:31">
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
-    </row>
-    <row r="46" customFormat="1" spans="8:10">
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+    </row>
+    <row r="46" customFormat="1" spans="8:31">
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
-    </row>
-    <row r="47" customFormat="1" spans="8:10">
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
+    </row>
+    <row r="47" customFormat="1" spans="8:31">
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
-    </row>
-    <row r="48" customFormat="1" spans="8:10">
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+    </row>
+    <row r="48" customFormat="1" spans="8:31">
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-    </row>
-    <row r="49" customFormat="1" spans="8:10">
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+    </row>
+    <row r="49" customFormat="1" spans="8:31">
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-    </row>
-    <row r="50" customFormat="1" spans="8:10">
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-    </row>
-    <row r="51" customFormat="1" spans="8:10">
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-    </row>
-    <row r="52" customFormat="1" spans="8:10">
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-    </row>
-    <row r="53" customFormat="1" spans="8:10">
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1782,7 +2675,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1793,20 +2686,20 @@
     <col min="4" max="16384" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" spans="1:4">
+    <row r="1" ht="34" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2"/>
+      <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="D2" s="6"/>
     </row>
@@ -1815,12 +2708,12 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="7"/>
     </row>

--- a/xlsx_template/aps_import_templete.xlsx
+++ b/xlsx_template/aps_import_templete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="14040" tabRatio="880" activeTab="1"/>
+    <workbookView windowWidth="27900" windowHeight="14040" tabRatio="880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="概要信息" sheetId="1" r:id="rId1"/>
@@ -161,12 +161,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -207,13 +206,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -228,11 +220,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,53 +256,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,7 +281,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,14 +289,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,14 +303,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,6 +331,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -365,13 +364,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,13 +460,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,151 +544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,22 +582,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,17 +606,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,21 +647,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -671,160 +661,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -854,21 +853,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1218,59 +1202,59 @@
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" ht="17" spans="1:2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" ht="17" spans="1:2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" ht="17" spans="1:2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" ht="17" spans="1:2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" ht="17" spans="1:2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" ht="17" spans="1:2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" ht="17" spans="1:2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="19"/>
+      <c r="A10" s="14"/>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="4"/>
@@ -1320,17 +1304,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="27" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.4038461538462" style="1" customWidth="1"/>
@@ -1340,7 +1324,7 @@
     <col min="6" max="6" width="23.9615384615385" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34" spans="1:6">
+    <row r="1" ht="17" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1359,22 +1343,6 @@
       <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="13"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1387,12 +1355,12 @@
   <sheetPr/>
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
